--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_07_end.xlsx
@@ -432,7 +432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   The volcano is about to erupt, but what can you possibly accomplish with that "data" of yours?
+    <t xml:space="preserve">[name="Cronin"]   The volcano is about to erupt, but what can you possibly accomplish with that 'data' of yours?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_07_end.xlsx
@@ -452,7 +452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Get all the operators to help with the evacuation, now!;At least get everyone to where it’s safe!",values="1;2")]
+    <t xml:space="preserve">[Decision(options="Get all the operators to help with the evacuation, now!;At least get everyone to where it's safe!",values="1;2")]
 </t>
   </si>
   <si>
